--- a/kagoyume_DB_info_ver1.0.xlsx
+++ b/kagoyume_DB_info_ver1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumi3\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumi3\Documents\github\ECsite_kagoyume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1EDC13-AC68-41BF-948B-5564B65386EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62924D0A-7726-4A54-BDB9-92D0EAC7B4D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10710" xr2:uid="{CF36E363-A20D-46AE-91A1-28FD23F26275}"/>
   </bookViews>
@@ -409,14 +409,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +735,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -747,7 +747,7 @@
     <col min="5" max="5" width="14.9375" customWidth="1"/>
     <col min="6" max="7" width="14.0625" customWidth="1"/>
     <col min="8" max="8" width="14.8125" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.7">
@@ -756,11 +756,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
@@ -850,11 +850,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -934,10 +934,10 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
